--- a/data/trans_dic/CONS_PSICO-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_PSICO-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 4,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,6; 6,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>5,15; 15,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 5,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,6; 14,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,1; 7,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>3,84; 14,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 3,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 7,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,4; 5,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>5,92; 13,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>9,33%</t>
         </is>
       </c>
     </row>
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 4,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 4,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 7,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,24</t>
+          <t>5,07; 11,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,85; 5,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,02; 8,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,87; 9,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>7,21; 15,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 4,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 5,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,7; 7,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>6,81; 12,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>10,32%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>1,29; 3,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,04</t>
+          <t>3,2; 8,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 4,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,51</t>
+          <t>6,68; 14,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>4,37; 8,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,12</t>
+          <t>7,45; 12,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,04; 14,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,14</t>
+          <t>7,5; 15,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>3,29; 5,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 11,19</t>
+          <t>5,99; 9,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,27; 8,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,62</t>
+          <t>8,01; 13,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>18,23%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,75</t>
+          <t>6,46; 10,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,8</t>
+          <t>2,35; 12,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,52</t>
+          <t>5,17; 10,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,02</t>
+          <t>8,57; 17,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,65</t>
+          <t>8,27; 12,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 15,65</t>
+          <t>12,29; 19,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,14</t>
+          <t>10,1; 16,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,98</t>
+          <t>19,18; 31,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,34</t>
+          <t>7,76; 10,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 12,88</t>
+          <t>5,22; 14,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,68</t>
+          <t>8,27; 12,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,93</t>
+          <t>14,46; 22,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>24,4%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,44</t>
+          <t>8,44; 13,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,67</t>
+          <t>9,52; 16,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,21</t>
+          <t>9,26; 16,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,88</t>
+          <t>10,77; 22,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 9,55</t>
+          <t>11,95; 16,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 15,14</t>
+          <t>21,9; 28,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,13</t>
+          <t>16,5; 24,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,51</t>
+          <t>25,36; 38,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,05</t>
+          <t>11,05; 14,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,89; 12,29</t>
+          <t>16,26; 21,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,92</t>
+          <t>13,96; 19,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,05</t>
+          <t>20,28; 29,6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>24,32%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,32</t>
+          <t>8,29; 13,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,32; 14,49</t>
+          <t>8,58; 15,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,35</t>
+          <t>8,85; 14,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,2</t>
+          <t>10,24; 26,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,48; 14,69</t>
+          <t>17,73; 24,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,79; 15,09</t>
+          <t>5,25; 29,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,15</t>
+          <t>21,67; 29,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,6</t>
+          <t>23,66; 38,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,43</t>
+          <t>13,72; 17,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 13,43</t>
+          <t>6,36; 21,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,34</t>
+          <t>16,45; 21,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,84</t>
+          <t>19,64; 30,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>40,17%</t>
         </is>
       </c>
     </row>
@@ -1564,69 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,97</t>
+          <t>19,85; 27,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,62; 17,08</t>
+          <t>17,69; 28,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,66</t>
+          <t>16,71; 24,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,73</t>
+          <t>19,75; 35,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,62; 16,01</t>
+          <t>35,05; 42,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,04; 31,25</t>
+          <t>32,18; 41,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,08; 18,82</t>
+          <t>29,41; 37,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,71; 12,75</t>
+          <t>41,76; 56,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,35; 12,35</t>
+          <t>29,29; 34,75</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,59; 22,63</t>
+          <t>27,13; 34,6</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,36; 14,19</t>
+          <t>25,08; 31,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,67; 10,38</t>
+          <t>34,99; 45,91</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1636,62 +1637,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>18,74%</t>
         </is>
       </c>
     </row>
@@ -1704,510 +1705,1922 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,86; 17,04</t>
+          <t>8,31; 10,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,84; 23,58</t>
+          <t>5,13; 9,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,78; 14,85</t>
+          <t>7,42; 9,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,34; 12,87</t>
+          <t>11,21; 15,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,87; 24,82</t>
+          <t>14,71; 17,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,01; 39,19</t>
+          <t>11,69; 18,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,77; 28,36</t>
+          <t>15,05; 17,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,95; 16,49</t>
+          <t>21,31; 26,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,6; 20,03</t>
+          <t>11,92; 13,47</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>20,05; 29,27</t>
+          <t>9,57; 13,64</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16,75; 20,67</t>
+          <t>11,63; 13,43</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,82; 13,92</t>
+          <t>17,26; 20,45</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>12,46%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>16,03%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>12,32%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>9,4%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>26,49%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>30,8%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>22,58%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>21,46%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>18,84%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>24,32%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>18,32%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>15,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>9,81; 15,59</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>10,43; 25,8</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>9,84; 15,1</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>7,5; 11,79</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>22,75; 30,78</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>24,32; 39,95</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>11,36; 29,53</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>18,7; 24,31</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>16,42; 21,13</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>19,27; 30,14</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>11,45; 21,45</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>13,4; 17,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>20,21%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>26,48%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>23,03%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>22,34%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>34,88%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>48,53%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>37,67%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>38,04%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>27,96%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>40,17%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>31,93%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>31,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>16,54; 24,35</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>19,27; 34,46</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>19,37; 27,01</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>19,1; 25,95</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>31,07; 39,16</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>41,37; 55,74</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>34,31; 40,93</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>34,77; 41,54</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>25,2; 30,88</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>34,56; 45,64</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>29,42; 34,62</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>29,42; 33,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>9,84%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>13,02%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>8,88%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>7,91%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>18,32%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>23,78%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>17,52%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>14,24%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>14,09%</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>18,68%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>13,45%</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>11,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>8,67; 10,92</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>11,35; 15,41</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>7,95; 9,9</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>7,19; 8,78</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>16,99; 19,73</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>21,37; 26,22</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>15,44; 18,64</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>13,27; 15,16</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>13,17; 15,05</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>17,09; 20,2</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>12,51; 14,21</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>10,53; 11,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de psicofármacos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3823</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6021</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6147</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1737</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12984</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6954</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3049</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16807</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12975</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11419</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>537; 2780</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19607</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2723; 11341</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3333; 9714</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>805; 3499</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4795; 27625</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3578; 13062</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2361; 9145</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1723; 4826</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7000; 33489</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8177; 20178</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7467; 16695</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2841</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8259</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9987</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13810</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13308</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13464</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3842</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16651</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21567</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>23450</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>867; 3202</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>418; 11362</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4230; 14162</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6250; 14654</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1155; 3643</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6346; 25193</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8176; 21002</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9229; 19566</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2556; 5745</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7845; 27600</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14567; 30487</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17117; 31054</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2284</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17261</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6785</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13618</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6091</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31661</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27706</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14282</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8375</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>48922</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34491</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27900</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1220; 3670</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9955; 27208</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3383; 12215</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9312; 20164</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4256; 8383</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24045; 40843</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19982; 35678</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9820; 20578</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6319; 11418</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37941; 62314</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26198; 43624</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21649; 36052</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11402</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>43644</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21521</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14394</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14318</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>60915</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37497</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28847</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25720</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>104559</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>59018</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43241</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9012; 14590</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14727; 78458</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15366; 29813</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10087; 20819</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11407; 17786</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>49732; 78576</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28248; 47435</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22923; 37218</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>21523; 30011</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>53897; 144699</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47682; 72748</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>34286; 53728</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14055</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>42257</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>29686</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>15539</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20824</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>80555</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>51882</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36644</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>34878</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>122812</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>81568</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>52183</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10703; 17081</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>32278; 54499</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21736; 39202</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10554; 22238</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17604; 24803</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>69824; 92142</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41928; 63128</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29387; 45022</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>30303; 40358</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>106992; 140165</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>68227; 95071</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>43364; 63314</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11100</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>24399</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20673</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11077</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>23685</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>69722</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>48724</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>27215</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>34785</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>94121</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>69397</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>38292</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8920; 14392</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17856; 32964</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16285; 25933</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7077; 18306</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>20378; 27678</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>23750; 131493</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>40882; 55967</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20904; 34342</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>30518; 39738</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>42039; 141056</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>61313; 79777</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>30932; 48654</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>22368</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>33826</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>29616</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>18273</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>51905</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>85235</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>71090</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>54841</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>74273</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>119061</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>100706</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>73113</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>19127; 26568</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>26759; 42792</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>24522; 35652</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>13629; 24194</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>46942; 56971</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>75075; 96572</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>62390; 80083</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>47200; 63666</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>67445; 80034</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>104320; 133062</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>89990; 112818</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>63698; 83559</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>64234</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>168050</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>122559</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>89035</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>120689</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>354882</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>257161</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>180565</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>184923</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>522933</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>379721</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>269599</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>57883; 71270</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>107847; 202181</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>108632; 137344</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>76382; 103270</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>111301; 129929</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>260876; 410592</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>235598; 278893</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>161366; 200943</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>173283; 195854</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>414595; 591128</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>352148; 406732</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>248343; 294157</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_PSICO-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_PSICO-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos</t>
+          <t>Consumo de psicofármacos (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos</t>
+          <t>Consumo de psicofármacos (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_PSICO-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_PSICO-Edad-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,43</t>
+          <t>1,02; 4,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,3</t>
+          <t>0,0; 7,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,15; 15,02</t>
+          <t>5,53; 16,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,6</t>
+          <t>1,27; 4,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 14,98</t>
+          <t>2,82; 13,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 14,86</t>
+          <t>3,87; 15,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,85</t>
+          <t>1,48; 4,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,96</t>
+          <t>1,65; 7,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 13,23</t>
+          <t>5,95; 13,21</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,63</t>
+          <t>1,34; 4,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 4,95</t>
+          <t>0,15; 3,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 11,88</t>
+          <t>4,96; 12,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,83</t>
+          <t>1,73; 5,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,01</t>
+          <t>1,93; 7,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 15,28</t>
+          <t>7,33; 15,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,36</t>
+          <t>1,76; 4,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,08</t>
+          <t>1,64; 5,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 12,36</t>
+          <t>6,78; 12,22</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,88</t>
+          <t>1,84; 5,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,76</t>
+          <t>3,33; 9,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 14,47</t>
+          <t>6,73; 14,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,6</t>
+          <t>4,08; 8,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 12,66</t>
+          <t>7,24; 12,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 15,71</t>
+          <t>7,65; 15,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,94</t>
+          <t>3,52; 6,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 9,84</t>
+          <t>6,14; 9,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,01; 13,34</t>
+          <t>7,69; 13,39</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,47</t>
+          <t>5,93; 9,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,51</t>
+          <t>2,6; 12,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 17,7</t>
+          <t>8,5; 17,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 12,89</t>
+          <t>7,43; 11,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 19,41</t>
+          <t>12,14; 19,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,18; 31,14</t>
+          <t>18,6; 31,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 10,82</t>
+          <t>7,19; 10,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 14,02</t>
+          <t>4,96; 14,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 22,65</t>
+          <t>14,62; 22,44</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,47</t>
+          <t>7,93; 12,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,52; 16,07</t>
+          <t>9,58; 16,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,77; 22,69</t>
+          <t>10,7; 23,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,95; 16,83</t>
+          <t>12,02; 16,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,9; 28,89</t>
+          <t>21,44; 29,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,36; 38,86</t>
+          <t>25,7; 39,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,05; 14,72</t>
+          <t>10,67; 14,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,26; 21,3</t>
+          <t>16,03; 21,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,28; 29,6</t>
+          <t>20,02; 29,69</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,29; 13,37</t>
+          <t>9,17; 14,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,58; 15,84</t>
+          <t>8,35; 15,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,24; 26,49</t>
+          <t>10,6; 25,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,73; 24,09</t>
+          <t>18,8; 25,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,25; 29,05</t>
+          <t>4,19; 29,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,66; 38,87</t>
+          <t>24,48; 39,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,72; 17,86</t>
+          <t>15,18; 19,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 21,35</t>
+          <t>5,45; 21,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,64; 30,9</t>
+          <t>19,54; 30,56</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,85; 27,57</t>
+          <t>18,65; 25,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,69; 28,29</t>
+          <t>17,23; 28,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,75; 35,06</t>
+          <t>19,26; 34,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,05; 42,54</t>
+          <t>34,01; 41,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,18; 41,4</t>
+          <t>32,25; 41,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>41,76; 56,33</t>
+          <t>41,02; 55,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,29; 34,75</t>
+          <t>28,93; 34,1</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,13; 34,6</t>
+          <t>27,38; 34,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>34,99; 45,91</t>
+          <t>34,66; 45,64</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,31; 10,23</t>
+          <t>8,04; 9,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,13; 9,62</t>
+          <t>5,3; 9,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1720,17 +1720,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,21; 15,16</t>
+          <t>11,29; 15,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,71; 17,17</t>
+          <t>14,23; 16,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,69; 18,4</t>
+          <t>10,76; 18,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,31; 26,53</t>
+          <t>21,6; 26,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,92; 13,47</t>
+          <t>11,44; 12,94</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,57; 13,64</t>
+          <t>9,24; 13,61</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,26; 20,45</t>
+          <t>17,16; 20,31</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>537; 2780</t>
+          <t>786; 3832</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 19607</t>
+          <t>0; 18555</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -2099,17 +2099,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3333; 9714</t>
+          <t>3575; 10511</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>805; 3499</t>
+          <t>845; 3121</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4795; 27625</t>
+          <t>5200; 25715</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2361; 9145</t>
+          <t>2382; 9350</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1723; 4826</t>
+          <t>2114; 5903</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7000; 33489</t>
+          <t>6958; 33495</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7467; 16695</t>
+          <t>7505; 16673</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>2048</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3842</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>867; 3202</t>
+          <t>1003; 3304</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>418; 11362</t>
+          <t>333; 9143</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6250; 14654</t>
+          <t>6111; 14947</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1155; 3643</t>
+          <t>1176; 3527</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6346; 25193</t>
+          <t>6070; 25005</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2327,17 +2327,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9229; 19566</t>
+          <t>9384; 19756</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2556; 5745</t>
+          <t>2522; 5902</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7845; 27600</t>
+          <t>8909; 28141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17117; 31054</t>
+          <t>17040; 30717</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2284</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6091</t>
+          <t>6575</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8375</t>
+          <t>10015</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1220; 3670</t>
+          <t>1913; 5564</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9955; 27208</t>
+          <t>10351; 28355</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9312; 20164</t>
+          <t>9384; 20885</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4256; 8383</t>
+          <t>4518; 9144</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24045; 40843</t>
+          <t>23345; 41488</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2535,17 +2535,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9820; 20578</t>
+          <t>10017; 20192</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6319; 11418</t>
+          <t>7552; 13158</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>37941; 62314</t>
+          <t>38901; 62984</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>21649; 36052</t>
+          <t>20795; 36209</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>11269</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14318</t>
+          <t>13922</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25720</t>
+          <t>25191</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9012; 14590</t>
+          <t>8587; 14429</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14727; 78458</t>
+          <t>16278; 78659</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2723,17 +2723,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10087; 20819</t>
+          <t>9996; 20268</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11407; 17786</t>
+          <t>11334; 17530</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49732; 78576</t>
+          <t>49149; 79650</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22923; 37218</t>
+          <t>22238; 37699</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21523; 30011</t>
+          <t>21375; 29775</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>53897; 144699</t>
+          <t>51214; 145294</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34286; 53728</t>
+          <t>34684; 53221</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14055</t>
+          <t>13322</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20824</t>
+          <t>21816</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>34878</t>
+          <t>35138</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10703; 17081</t>
+          <t>10282; 16528</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>32278; 54499</t>
+          <t>32482; 54517</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2931,17 +2931,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10554; 22238</t>
+          <t>10486; 22658</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17604; 24803</t>
+          <t>18261; 25603</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>69824; 92142</t>
+          <t>68364; 92530</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2951,17 +2951,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>29387; 45022</t>
+          <t>29770; 45552</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30303; 40358</t>
+          <t>30039; 40191</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>106992; 140165</t>
+          <t>105469; 140065</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>43364; 63314</t>
+          <t>42808; 63496</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>11100</t>
+          <t>12026</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>23685</t>
+          <t>25749</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>34785</t>
+          <t>37775</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8920; 14392</t>
+          <t>9578; 14748</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17856; 32964</t>
+          <t>17370; 31850</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -3139,17 +3139,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7077; 18306</t>
+          <t>7326; 17753</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20378; 27678</t>
+          <t>21769; 29865</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23750; 131493</t>
+          <t>18981; 133902</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3159,17 +3159,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20904; 34342</t>
+          <t>21630; 34568</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30518; 39738</t>
+          <t>33435; 43088</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>42039; 141056</t>
+          <t>35992; 143797</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>30932; 48654</t>
+          <t>30762; 48121</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>22368</t>
+          <t>19924</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>51905</t>
+          <t>49909</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>74273</t>
+          <t>69833</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>19127; 26568</t>
+          <t>16637; 23046</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>26759; 42792</t>
+          <t>26064; 42431</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>13629; 24194</t>
+          <t>13290; 23813</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>46942; 56971</t>
+          <t>44998; 54434</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>75075; 96572</t>
+          <t>75222; 95801</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>47200; 63666</t>
+          <t>46354; 63151</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>67445; 80034</t>
+          <t>64084; 75542</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>104320; 133062</t>
+          <t>105294; 132712</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>63698; 83559</t>
+          <t>63084; 83078</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>64234</t>
+          <t>63738</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>120689</t>
+          <t>121697</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>184923</t>
+          <t>185434</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -3540,12 +3540,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>57883; 71270</t>
+          <t>58168; 70323</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>107847; 202181</t>
+          <t>111407; 201561</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3555,17 +3555,17 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>76382; 103270</t>
+          <t>76884; 103533</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>111301; 129929</t>
+          <t>113491; 130401</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>260876; 410592</t>
+          <t>240009; 404034</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -3575,17 +3575,17 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>161366; 200943</t>
+          <t>163597; 198477</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>173283; 195854</t>
+          <t>173995; 196880</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>414595; 591128</t>
+          <t>400243; 589919</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>248343; 294157</t>
+          <t>246871; 292076</t>
         </is>
       </c>
     </row>
